--- a/entry/工作簿1.xlsx
+++ b/entry/工作簿1.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,63 +396,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ke-111</v>
+        <v>top-title</v>
       </c>
       <c r="B2" t="str">
-        <v>ke-111</v>
+        <v>这是顶部标题</v>
       </c>
       <c r="C2" t="str">
-        <v>ke-111</v>
+        <v>this is top titile</v>
       </c>
       <c r="D2" t="str">
-        <v>这是标题</v>
+        <v>顶部标题</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ke-222</v>
+        <v>content-text</v>
       </c>
       <c r="B3" t="str">
-        <v>ke-222</v>
+        <v>这是中部文本</v>
       </c>
       <c r="C3" t="str">
-        <v>ke-222</v>
+        <v>this is content text</v>
       </c>
       <c r="D3" t="str">
-        <v>这是内容</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ke-333</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ke-333</v>
-      </c>
-      <c r="C4" t="str">
-        <v>ke-333</v>
-      </c>
-      <c r="D4" t="str">
-        <v>这是内容</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ke-444</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ke-333</v>
-      </c>
-      <c r="C5" t="str">
-        <v>ke-333</v>
-      </c>
-      <c r="D5" t="str">
-        <v>这是内容</v>
+        <v>中部文本</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>